--- a/DOM_Banner/output/dept0713/Joshua Malo_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joshua Malo_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC V6T 1Z4, Canada; Department of Anesthesiology, Pharmacology and Therapeutics, University of British Columbia, Vancouver, BC V6T 1Z4, Canada; Asthma and Airway Disease Research Center, College of Medicine, University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Internal Medicine, Clinica Universidad de Navarra, 31008 Pamplona, Spain; Department of Internal Medicine, Clinica Universidad de Navarra, 31008 Pamplona, Spain; Department of Internal Medicine, Clinica Universidad de Navarra, 31008 Pamplona, Spain; Mount-Sinai Hospital, New York, NY 10029, USA; Department of Surgery, University of Arizona, Tucson, AZ 85719, USA; Department of Surgery, University of Arizona, Tucson, AZ 85719, USA; Pulmonary Division, University of Ferrara, 44121 Ferrara, Italy; Pulmonary Division, University of Ferrara, 44121 Ferrara, Italy; Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC V6T 1Z4, Canada; Department of Pathology and Laboratory Medicine, University of British Columbia, Vancouver, BC V6T 1Z4, Canada; Department of Medicine, Yale University, New Haven, CT 06520, USA; Nanostring Technologies, Seattle, WA 98109, USA; Nanostring Technologies, Seattle, WA 98109, USA; Asthma and Airway Disease Research Center, College of Medicine, University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Immunobiology, University of Arizona, Tucson, AZ 85719, USA; Department of Medicine and Center for Translational Research, Baylor College of Medicine, Houston, TX 77030, USA; Department of Medicine and Center for Translational Research, Baylor College of Medicine, Houston, TX 77030, USA; Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC V6T 1Z4, Canada; Department of Anesthesiology, Pharmacology and Therapeutics, University of British Columbia, Vancouver, BC V6T 1Z4, Canada; Department of Medicine and Center for Translational Research, Baylor College of Medicine, Houston, TX 77030, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283463319</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Lung Spatial Profiling Reveals a T Cell Signature in COPD Patients with Fatal SARS-CoV-2 Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11121864</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35740993</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11121864</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC, Canada; Department of Anesthesiology, Pharmacology and Therapeutics, University of British Columbia, Vancouver, BC, Canada; Asthma and Airway Disease Research Center, University of Arizona College of Medicine, Tucson, AZ; Department of Internal Medicine, Clinica Universidad de Navarra, Pamplona, Spain; Department of Internal Medicine, Clinica Universidad de Navarra, Pamplona, Spain; Department of Internal Medicine, Clinica Universidad de Navarra, Pamplona, Spain; Mount-Sinai Hospital, New York, NY; Department of Surgery, University of Arizona, Tucson, AZ; Department of Surgery, University of Arizona, Tucson, AZ; Pulmonary Division, University of Ferrara, Ferrara, Italy; Pulmonary Division, University of Ferrara, Ferrara, Italy; Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC, Canada; Department of Pathology and Laboratory Medicine, University of British Columbia, Vancouver, BC, Canada; Department of Medicine, Yale University, New Haven, CT; Nanostring Technologies, Seattle, WA; Nanostring Technologies, Seattle, WA; Asthma and Airway Disease Research Center, University of Arizona College of Medicine, Tucson, AZ; Department of Immunobiology, University of Arizona, Tucson, AZ; Department of Medicine, Baylor College of Medicine, and Center for Translational Research, Houston, TX; Department of Medicine, Baylor College of Medicine, and Center for Translational Research, Houston, TX; Centre for Heart and Lung Innovation, St. Paul’s Hospital, Vancouver, BC, Canada; Department of Anesthesiology, Pharmacology and Therapeutics, University of British Columbia, Vancouver, BC, Canada; Department of Medicine, Baylor College of Medicine, and Center for Translational Research, Houston, TX</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280550376</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Lung spatial profiling reveals a T cell signature in COPD patients with fatal SARS-CoV-2 infection</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.04.20.488968</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.04.20.488968</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States; Infectious Disease, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Radiology, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225307915</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Retrospective Determination of Miliary Disease Etiology in a Coccidioides-Endemic Center</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; ; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308369512</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Outcomes of Venovenous Extracorporeal Membrane Oxygenation in Viral Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36326705</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joshua Malo_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Joshua Malo_2022.xlsx
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ashley Scott, Jughwan Lim, R.S. Randhawa, Kavitha Yaddanapudi, Joshua Malo</t>
+          <t>Toshinobu Kazui, Chiu-Hsieh Hsu, Scott D. Lick, Cameron Hypes, Bhupinder Natt, Joshua Malo, Jarrod Mosier, David A. Bull</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States; Infectious Disease, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Radiology, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; ; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225307915</t>
+          <t>https://openalex.org/W4308369512</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Retrospective Determination of Miliary Disease Etiology in a Coccidioides-Endemic Center</t>
+          <t>Outcomes of Venovenous Extracorporeal Membrane Oxygenation in Viral Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>ASAIO Journal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lippincott Williams &amp; Wilkins</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/mat.0000000000001671</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36326705</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
+          <t>https://doi.org/10.1097/mat.0000000000001671</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joshua Malo, Bhupinder Natt, Sachin Chaudhary, Kenneth S. Knox</t>
+          <t>Ashley Scott, Jughwan Lim, R.S. Randhawa, Kavitha Yaddanapudi, Joshua Malo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA</t>
+          <t>Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States; Infectious Disease, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Radiology, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4293475271</t>
+          <t>https://openalex.org/W4225307915</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prophylaxis in Lung Transplant Recipients</t>
+          <t>Retrospective Determination of Miliary Disease Etiology in a Coccidioides-Endemic Center</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Clinical Infectious Diseases</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac706</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac706</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4541</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Toshinobu Kazui, Chiu-Hsieh Hsu, Scott D. Lick, Cameron Hypes, Bhupinder Natt, Joshua Malo, Jarrod Mosier, David A. Bull</t>
+          <t>Joshua Malo, Bhupinder Natt, Sachin Chaudhary, Kenneth S. Knox</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona; ; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep, Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona; Division of Cardiothoracic Surgery, The University of Arizona College of Medicine, Tucson, Arizona</t>
+          <t>Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308369512</t>
+          <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outcomes of Venovenous Extracorporeal Membrane Oxygenation in Viral Acute Respiratory Distress Syndrome</t>
+          <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Clinical Infectious Diseases</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/mat.0000000000001671</t>
+          <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36326705</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/mat.0000000000001671</t>
+          <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
